--- a/backend/database/seeders/PHARM.xlsx
+++ b/backend/database/seeders/PHARM.xlsx
@@ -1,46 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vampi\Documents\GitHub\Grad_Project\backend\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81AF20-7B4C-4E83-B8A4-5128529C45E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD993E-CAB4-48C7-ACD0-AD71DAE05313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{211975C1-FCE8-4216-B7E3-BE291EEF5CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
-  <si>
-    <t>Medecines Name</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>BRONCHO-VAXOM</t>
   </si>
@@ -694,249 +679,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C7AA0-D49B-4CFB-95BD-5849723CCF8C}">
-  <dimension ref="B2:F106"/>
+  <dimension ref="B1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <v>10.5</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>132.75</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>10.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>132.75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>420</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>420</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>31.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>85.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <v>57.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18">
-        <v>72</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>52</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>64.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>22.5</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>53.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24">
-        <v>70.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25">
-        <v>51</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>120</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>28.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <v>11.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32">
         <v>40</v>
@@ -944,175 +945,175 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35">
-        <v>40</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38">
-        <v>220</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39">
-        <v>125</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40">
-        <v>45</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>28</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>88.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43">
-        <v>37.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F44">
-        <v>19.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50">
-        <v>37</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53">
-        <v>23.75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -1120,354 +1121,354 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F55">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F56">
-        <v>36</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F59">
-        <v>13.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>18.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>50</v>
+        <v>162.75</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>60</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>162.75</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>21</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>173.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F68">
-        <v>20.75</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F69">
-        <v>145.5</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="F70">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F71">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F72">
-        <v>113.5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73">
-        <v>13</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F74">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F75">
-        <v>162</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F76">
-        <v>495</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F77">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F78">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F79">
-        <v>295</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F80">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F81">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F82">
-        <v>172.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F83">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84">
-        <v>74</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F85">
-        <v>100</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F86">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F87">
-        <v>147</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F88">
-        <v>31.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F90">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F91">
-        <v>72.5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F92">
-        <v>765</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F93">
-        <v>58</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F94">
-        <v>160</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F95">
-        <v>30</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F96">
-        <v>295</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F97">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F98">
-        <v>37.5</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
@@ -1475,7 +1476,7 @@
         <v>97</v>
       </c>
       <c r="F99">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
@@ -1483,54 +1484,30 @@
         <v>98</v>
       </c>
       <c r="F100">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F101">
-        <v>53.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F102">
-        <v>29</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F103">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>101</v>
-      </c>
-      <c r="F104">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>102</v>
-      </c>
-      <c r="F105">
-        <v>106.5</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>59</v>
-      </c>
-      <c r="F106">
         <v>43</v>
       </c>
     </row>
